--- a/dtpu_configurations/only_integer32/30mhz/mxu_3x3/power.xlsx
+++ b/dtpu_configurations/only_integer32/30mhz/mxu_3x3/power.xlsx
@@ -175,19 +175,19 @@
         <v>11</v>
       </c>
       <c r="B2" t="n" s="4">
-        <v>0.010991264134645462</v>
+        <v>0.013206493109464645</v>
       </c>
       <c r="C2" t="n" s="4">
-        <v>0.005536400713026524</v>
+        <v>0.004885776899755001</v>
       </c>
       <c r="D2" t="n" s="4">
-        <v>0.00393033679574728</v>
+        <v>0.003953689709305763</v>
       </c>
       <c r="E2" t="n" s="4">
-        <v>0.0019886742811650038</v>
+        <v>0.0025854846462607384</v>
       </c>
       <c r="F2" t="n" s="4">
-        <v>1.8136065591534134E-6</v>
+        <v>2.3262140166480094E-4</v>
       </c>
       <c r="G2" t="n" s="4">
         <v>6.485169869847596E-4</v>
@@ -199,10 +199,10 @@
         <v>1.2575732469558716</v>
       </c>
       <c r="J2" t="n" s="4">
-        <v>0.125111922621727</v>
+        <v>0.1272355318069458</v>
       </c>
       <c r="K2" t="n" s="4">
-        <v>1.4063740968704224</v>
+        <v>1.410913348197937</v>
       </c>
     </row>
   </sheetData>
